--- a/biology/Médecine/Plastron_(médecine)/Plastron_(médecine).xlsx
+++ b/biology/Médecine/Plastron_(médecine)/Plastron_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plastron_(m%C3%A9decine)</t>
+          <t>Plastron_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plastron est un signe clinique en médecine retrouvé à la palpation abdominale, désignant une masse résistante, douloureuse et mal délimitée, donnant la sensation d'un « blindage » de la paroi.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plastron_(m%C3%A9decine)</t>
+          <t>Plastron_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le découvre dans certaines pathologies infectieuses ou inflammatoires aiguës (appendicite, péritonite, angiocholite, sigmoïdite) et correspondant à l'inflammation de la graisse épiploïque.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plastron_(m%C3%A9decine)</t>
+          <t>Plastron_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il nécessite un traitement antibiotique par voie générale précédant le traitement chirurgical de l'affection causale.
  Portail de la médecine                     </t>
